--- a/data/NH Story Point Plan.xlsx
+++ b/data/NH Story Point Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="-20240" windowWidth="30240" windowHeight="18960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Full-Delivery" state="visible" r:id="rId4"/>
@@ -1505,7 +1505,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="134" zoomScaleNormal="120">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
@@ -2968,7 +2968,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="29">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2989,7 +2989,7 @@
         <v>215</v>
       </c>
       <c r="E50" s="33">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -3339,7 +3339,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -3658,7 +3658,9 @@
       <c r="F3" s="9">
         <v>18</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9">
+        <v>22</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -3851,118 +3853,118 @@
         <v>55</v>
       </c>
       <c r="G5" s="9">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="H5" s="9">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I5" s="9">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="J5" s="9">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="K5" s="9">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="L5" s="9">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="M5" s="9">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="N5" s="9">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="O5" s="9">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="P5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="R5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="S5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="T5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="U5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="V5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="W5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="X5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="Y5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="Z5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AA5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AB5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AC5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AD5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AE5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AF5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AG5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AI5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AJ5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AK5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AL5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AM5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AN5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AO5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AP5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AQ5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AR5" s="42">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -3984,7 +3986,9 @@
       <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <v>-8</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -4043,118 +4047,118 @@
         <v>714</v>
       </c>
       <c r="G7" s="9">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="H7" s="9">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="I7" s="9">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="J7" s="9">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="K7" s="9">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="L7" s="9">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="M7" s="9">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="N7" s="9">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="O7" s="9">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="P7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="Q7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="R7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="S7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="T7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="U7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="V7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="W7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="X7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="Y7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="Z7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AA7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AB7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AC7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AD7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AE7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AF7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AG7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AH7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AI7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AJ7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AK7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AL7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AM7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AN7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AO7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AP7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AQ7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AR7" s="42">
-        <v>714</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -5283,7 +5287,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -6117,20 +6121,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="47">
-        <v>15.33</v>
+        <v>17</v>
       </c>
       <c r="C24" s="47">
-        <v>15.33</v>
+        <v>17</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
       <c r="F24" s="47">
-        <v>15.33</v>
+        <v>17</v>
+      </c>
+      <c r="G24" s="47">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -6296,7 +6303,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -7123,7 +7130,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -7915,7 +7922,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -8742,7 +8749,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -9534,7 +9541,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -10186,7 +10193,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -10523,6 +10530,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/data/NH Story Point Plan.xlsx
+++ b/data/NH Story Point Plan.xlsx
@@ -1505,7 +1505,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="134" zoomScaleNormal="120">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
@@ -2968,7 +2968,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="29">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2989,7 +2989,7 @@
         <v>215</v>
       </c>
       <c r="E50" s="33">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -3348,7 +3348,7 @@
   <dimension ref="A1:AR7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="150" zoomScaleNormal="125">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125"/>
@@ -3659,7 +3659,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -3853,118 +3853,118 @@
         <v>55</v>
       </c>
       <c r="G5" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H5" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I5" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J5" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K5" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L5" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M5" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N5" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O5" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="T5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="V5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="X5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AA5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AB5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AC5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AD5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AF5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AG5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AI5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AJ5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AK5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AL5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AM5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AN5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AO5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AP5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AQ5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AR5" s="42">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -4047,118 +4047,118 @@
         <v>714</v>
       </c>
       <c r="G7" s="9">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="H7" s="9">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="I7" s="9">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="J7" s="9">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K7" s="9">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="L7" s="9">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="M7" s="9">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="N7" s="9">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="O7" s="9">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="P7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="Q7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="R7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="S7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="T7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="U7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="V7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="W7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="X7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="Y7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="Z7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AA7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AB7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AC7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AD7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AE7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AF7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AG7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AH7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AI7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AJ7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AK7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AL7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AM7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AN7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AO7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AP7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AQ7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AR7" s="42">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -6126,18 +6126,18 @@
         <v>69</v>
       </c>
       <c r="B24" s="47">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="C24" s="47">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
       <c r="F24" s="47">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="G24" s="47">
-        <v>17</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">

--- a/data/NH Story Point Plan.xlsx
+++ b/data/NH Story Point Plan.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B512F82D-4457-0040-BF3A-E394132D1ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Full-Delivery" state="visible" r:id="rId4"/>
-    <sheet sheetId="11" name="Progress" state="visible" r:id="rId5"/>
-    <sheet sheetId="12" name="Designs" state="visible" r:id="rId6"/>
-    <sheet sheetId="2" name="Sprint 30" state="visible" r:id="rId7"/>
-    <sheet sheetId="3" name="Sprint 31" state="visible" r:id="rId8"/>
-    <sheet sheetId="4" name="Sprint 32" state="visible" r:id="rId9"/>
-    <sheet sheetId="5" name="Sprint 33" state="visible" r:id="rId10"/>
-    <sheet sheetId="6" name="Sprint 34" state="visible" r:id="rId11"/>
-    <sheet sheetId="7" name="Sprint 35" state="visible" r:id="rId12"/>
-    <sheet sheetId="8" name="Sprint 36" state="visible" r:id="rId13"/>
-    <sheet sheetId="9" name="Sprint 37" state="visible" r:id="rId14"/>
-    <sheet sheetId="10" name="Sprint 38" state="visible" r:id="rId15"/>
+    <sheet name="Full-Delivery" sheetId="1" r:id="rId1"/>
+    <sheet name="Progress" sheetId="11" r:id="rId2"/>
+    <sheet name="Designs" sheetId="12" r:id="rId3"/>
+    <sheet name="Sprint 30" sheetId="2" r:id="rId4"/>
+    <sheet name="Sprint 31" sheetId="3" r:id="rId5"/>
+    <sheet name="Sprint 32" sheetId="4" r:id="rId6"/>
+    <sheet name="Sprint 33" sheetId="5" r:id="rId7"/>
+    <sheet name="Sprint 34" sheetId="6" r:id="rId8"/>
+    <sheet name="Sprint 35" sheetId="7" r:id="rId9"/>
+    <sheet name="Sprint 36" sheetId="8" r:id="rId10"/>
+    <sheet name="Sprint 37" sheetId="9" r:id="rId11"/>
+    <sheet name="Sprint 38" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase">'Full-Delivery'!$A$1:$L$59</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -744,47 +758,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFFFFFF"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="13">
@@ -796,7 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,13 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,14 +1521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="134" zoomScaleNormal="120">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="134" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
@@ -1517,7 +1537,7 @@
     <col min="13" max="13" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1623,7 @@
       </c>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1633,7 +1653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1661,7 +1681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1693,7 +1713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1719,7 +1739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1753,7 +1773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1783,7 +1803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
@@ -1815,7 +1835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1847,7 +1867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1875,7 +1895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -1903,7 +1923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -1931,7 +1951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
@@ -1959,7 +1979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
@@ -1989,7 +2009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>33</v>
       </c>
@@ -2015,7 +2035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>34</v>
       </c>
@@ -2043,7 +2063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
@@ -2071,7 +2091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
@@ -2097,7 +2117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -2123,7 +2143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>38</v>
       </c>
@@ -2151,7 +2171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
@@ -2179,7 +2199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
@@ -2207,7 +2227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -2233,7 +2253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>43</v>
       </c>
@@ -2261,7 +2281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>44</v>
       </c>
@@ -2291,7 +2311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>45</v>
       </c>
@@ -2323,7 +2343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>47</v>
       </c>
@@ -2349,7 +2369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>48</v>
       </c>
@@ -2379,7 +2399,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>49</v>
       </c>
@@ -2407,7 +2427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>50</v>
       </c>
@@ -2435,7 +2455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>51</v>
       </c>
@@ -2465,7 +2485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>52</v>
       </c>
@@ -2497,7 +2517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>53</v>
       </c>
@@ -2527,7 +2547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>54</v>
       </c>
@@ -2555,7 +2575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>55</v>
       </c>
@@ -2587,7 +2607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>56</v>
       </c>
@@ -2615,7 +2635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>57</v>
       </c>
@@ -2645,7 +2665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>58</v>
       </c>
@@ -2679,7 +2699,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>59</v>
       </c>
@@ -2707,7 +2727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>60</v>
       </c>
@@ -2735,7 +2755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
@@ -2763,7 +2783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>61</v>
       </c>
@@ -2791,7 +2811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>62</v>
       </c>
@@ -2825,7 +2845,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>64</v>
       </c>
@@ -2865,7 +2885,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>65</v>
       </c>
@@ -2903,23 +2923,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" ht="13" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+    <row r="47" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M47" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="31" t="s">
         <v>67</v>
       </c>
@@ -2963,20 +2973,18 @@
       </c>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" ht="22" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="29">
-        <v>19</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+        <v>26</v>
+      </c>
       <c r="E49" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="21" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="32" t="s">
         <v>69</v>
       </c>
@@ -2989,7 +2997,7 @@
         <v>215</v>
       </c>
       <c r="E50" s="33">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -3000,7 +3008,7 @@
       <c r="L50" s="33"/>
       <c r="M50" s="33"/>
     </row>
-    <row r="51" ht="21" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="35" t="s">
         <v>71</v>
       </c>
@@ -3017,26 +3025,20 @@
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
     </row>
-    <row r="52" ht="26" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="1"/>
       <c r="D52" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H53" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -3045,7 +3047,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -3054,7 +3056,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -3063,7 +3065,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -3072,7 +3074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -3081,7 +3083,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -3091,273 +3093,1333 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L59"/>
+  <autoFilter ref="A1:L59" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="45" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+      <c r="F4">
+        <v>1.2</v>
+      </c>
+      <c r="G4">
+        <v>1.2</v>
+      </c>
+      <c r="H4">
+        <v>1.2</v>
+      </c>
+      <c r="I4">
+        <v>1.2</v>
+      </c>
+      <c r="J4">
+        <v>1.2</v>
+      </c>
+      <c r="M4">
+        <v>1.2</v>
+      </c>
+      <c r="N4">
+        <v>1.2</v>
+      </c>
+      <c r="O4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="B13" s="46">
+        <v>19.2</v>
+      </c>
+      <c r="C13" s="46">
+        <v>19.2</v>
+      </c>
+      <c r="F13" s="46">
+        <v>19.2</v>
+      </c>
+      <c r="G13" s="46">
+        <v>19.2</v>
+      </c>
+      <c r="H13" s="46">
+        <v>19.2</v>
+      </c>
+      <c r="I13" s="46">
+        <v>19.2</v>
+      </c>
+      <c r="J13" s="46">
+        <v>19.2</v>
+      </c>
+      <c r="M13" s="46">
+        <v>19.2</v>
+      </c>
+      <c r="N13" s="46">
+        <v>19.2</v>
+      </c>
+      <c r="O13" s="46">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="16" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="48">
-        <f>SUM($B$2:B$2)-SUM($B$3:B$3)</f>
-      </c>
-      <c r="C5" s="48">
-        <f>SUM($B$2:C$2)-SUM($B$3:C$3)</f>
-      </c>
-      <c r="D5" s="48">
-        <f>SUM($B$2:D$2)-SUM($B$3:D$3)</f>
-      </c>
-      <c r="E5" s="48">
-        <f>SUM($B$2:E$2)-SUM($B$3:E$3)</f>
-      </c>
-      <c r="F5" s="48">
-        <f>SUM($B$2:F$2)-SUM($B$3:F$3)</f>
-      </c>
-      <c r="G5" s="48">
-        <f>SUM($B$2:G$2)-SUM($B$3:G$3)</f>
-      </c>
-      <c r="H5" s="48">
-        <f>SUM($B$2:H$2)-SUM($B$3:H$3)</f>
-      </c>
-      <c r="I5" s="48">
-        <f>SUM($B$2:I$2)-SUM($B$3:I$3)</f>
-      </c>
-      <c r="J5" s="48">
-        <f>SUM($B$2:J$2)-SUM($B$3:J$3)</f>
-      </c>
-      <c r="K5" s="48">
-        <f>SUM($B$2:K$2)-SUM($B$3:K$3)</f>
-      </c>
-      <c r="L5" s="48">
-        <f>SUM($B$2:L$2)-SUM($B$3:L$3)</f>
-      </c>
-      <c r="M5" s="48">
-        <f>SUM($B$2:M$2)-SUM($B$3:M$3)</f>
-      </c>
-      <c r="N5" s="48">
-        <f>SUM($B$2:N$2)-SUM($B$3:N$3)</f>
-      </c>
-      <c r="O5" s="48">
-        <f>SUM($B$2:O$2)-SUM($B$3:O$3)</f>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="B16" s="48">
+        <f>SUM($B$13:B$13)-SUM($B$14:B$14)</f>
+        <v>19.2</v>
+      </c>
+      <c r="C16" s="48">
+        <f>SUM($B$13:C$13)-SUM($B$14:C$14)</f>
+        <v>38.4</v>
+      </c>
+      <c r="D16" s="48">
+        <f>SUM($B$13:D$13)-SUM($B$14:D$14)</f>
+        <v>38.4</v>
+      </c>
+      <c r="E16" s="48">
+        <f>SUM($B$13:E$13)-SUM($B$14:E$14)</f>
+        <v>38.4</v>
+      </c>
+      <c r="F16" s="48">
+        <f>SUM($B$13:F$13)-SUM($B$14:F$14)</f>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="G16" s="48">
+        <f>SUM($B$13:G$13)-SUM($B$14:G$14)</f>
+        <v>76.8</v>
+      </c>
+      <c r="H16" s="48">
+        <f>SUM($B$13:H$13)-SUM($B$14:H$14)</f>
+        <v>96</v>
+      </c>
+      <c r="I16" s="48">
+        <f>SUM($B$13:I$13)-SUM($B$14:I$14)</f>
+        <v>115.2</v>
+      </c>
+      <c r="J16" s="48">
+        <f>SUM($B$13:J$13)-SUM($B$14:J$14)</f>
+        <v>134.4</v>
+      </c>
+      <c r="K16" s="48">
+        <f>SUM($B$13:K$13)-SUM($B$14:K$14)</f>
+        <v>134.4</v>
+      </c>
+      <c r="L16" s="48">
+        <f>SUM($B$13:L$13)-SUM($B$14:L$14)</f>
+        <v>134.4</v>
+      </c>
+      <c r="M16" s="48">
+        <f>SUM($B$13:M$13)-SUM($B$14:M$14)</f>
+        <v>153.6</v>
+      </c>
+      <c r="N16" s="48">
+        <f>SUM($B$13:N$13)-SUM($B$14:N$14)</f>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="O16" s="48">
+        <f>SUM($B$13:O$13)-SUM($B$14:O$14)</f>
+        <v>191.99999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="49">
-        <v>1</v>
-      </c>
-      <c r="C7" s="49">
-        <v>2</v>
-      </c>
-      <c r="D7" s="49">
+      <c r="B18" s="49">
+        <v>1</v>
+      </c>
+      <c r="C18" s="49">
+        <v>2</v>
+      </c>
+      <c r="D18" s="49">
         <v>3</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E18" s="49">
         <v>4</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F18" s="49">
         <v>5</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G18" s="49">
         <v>6</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H18" s="49">
         <v>7</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I18" s="49">
         <v>8</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J18" s="49">
         <v>9</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K18" s="49">
         <v>10</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L18" s="49">
         <v>11</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M18" s="49">
         <v>12</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N18" s="49">
         <v>13</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O18" s="49">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="B8">
-        <f>B5</f>
-      </c>
-      <c r="C8">
-        <f>C5</f>
-      </c>
-      <c r="D8">
-        <f>D5</f>
-      </c>
-      <c r="E8">
-        <f>E5</f>
-      </c>
-      <c r="F8">
-        <f>F5</f>
-      </c>
-      <c r="G8">
-        <f>G5</f>
-      </c>
-      <c r="H8">
-        <f>H5</f>
-      </c>
-      <c r="I8">
-        <f>I5</f>
-      </c>
-      <c r="J8">
-        <f>J5</f>
-      </c>
-      <c r="K8">
-        <f>K5</f>
-      </c>
-      <c r="L8">
-        <f>L5</f>
-      </c>
-      <c r="M8">
-        <f>M5</f>
-      </c>
-      <c r="N8">
-        <f>N5</f>
-      </c>
-      <c r="O8">
-        <f>O5</f>
-      </c>
-    </row>
-    <row r="10" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B19">
+        <f t="shared" ref="B19:O19" si="0">B16</f>
+        <v>19.2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>38.4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>38.4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>38.4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>76.8</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>115.2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>134.4</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>134.4</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>134.4</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>153.6</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>191.99999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>236</v>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="15" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="45" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="46">
+        <v>6</v>
+      </c>
+      <c r="C4" s="46">
+        <v>6</v>
+      </c>
+      <c r="F4" s="46">
+        <v>6</v>
+      </c>
+      <c r="G4" s="46">
+        <v>6</v>
+      </c>
+      <c r="H4" s="46">
+        <v>6</v>
+      </c>
+      <c r="I4" s="46">
+        <v>6</v>
+      </c>
+      <c r="J4" s="46">
+        <v>6</v>
+      </c>
+      <c r="M4" s="46">
+        <v>6</v>
+      </c>
+      <c r="N4" s="46">
+        <v>6</v>
+      </c>
+      <c r="O4" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="48">
+        <f>SUM($B$4:B$4)-SUM($B$5:B$5)</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="48">
+        <f>SUM($B$4:C$4)-SUM($B$5:C$5)</f>
+        <v>12</v>
+      </c>
+      <c r="D7" s="48">
+        <f>SUM($B$4:D$4)-SUM($B$5:D$5)</f>
+        <v>12</v>
+      </c>
+      <c r="E7" s="48">
+        <f>SUM($B$4:E$4)-SUM($B$5:E$5)</f>
+        <v>12</v>
+      </c>
+      <c r="F7" s="48">
+        <f>SUM($B$4:F$4)-SUM($B$5:F$5)</f>
+        <v>18</v>
+      </c>
+      <c r="G7" s="48">
+        <f>SUM($B$4:G$4)-SUM($B$5:G$5)</f>
+        <v>24</v>
+      </c>
+      <c r="H7" s="48">
+        <f>SUM($B$4:H$4)-SUM($B$5:H$5)</f>
+        <v>30</v>
+      </c>
+      <c r="I7" s="48">
+        <f>SUM($B$4:I$4)-SUM($B$5:I$5)</f>
+        <v>36</v>
+      </c>
+      <c r="J7" s="48">
+        <f>SUM($B$4:J$4)-SUM($B$5:J$5)</f>
+        <v>42</v>
+      </c>
+      <c r="K7" s="48">
+        <f>SUM($B$4:K$4)-SUM($B$5:K$5)</f>
+        <v>42</v>
+      </c>
+      <c r="L7" s="48">
+        <f>SUM($B$4:L$4)-SUM($B$5:L$5)</f>
+        <v>42</v>
+      </c>
+      <c r="M7" s="48">
+        <f>SUM($B$4:M$4)-SUM($B$5:M$5)</f>
+        <v>48</v>
+      </c>
+      <c r="N7" s="48">
+        <f>SUM($B$4:N$4)-SUM($B$5:N$5)</f>
+        <v>54</v>
+      </c>
+      <c r="O7" s="48">
+        <f>SUM($B$4:O$4)-SUM($B$5:O$5)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="49">
+        <v>1</v>
+      </c>
+      <c r="C9" s="49">
+        <v>2</v>
+      </c>
+      <c r="D9" s="49">
+        <v>3</v>
+      </c>
+      <c r="E9" s="49">
+        <v>4</v>
+      </c>
+      <c r="F9" s="49">
+        <v>5</v>
+      </c>
+      <c r="G9" s="49">
+        <v>6</v>
+      </c>
+      <c r="H9" s="49">
+        <v>7</v>
+      </c>
+      <c r="I9" s="49">
+        <v>8</v>
+      </c>
+      <c r="J9" s="49">
+        <v>9</v>
+      </c>
+      <c r="K9" s="49">
+        <v>10</v>
+      </c>
+      <c r="L9" s="49">
+        <v>11</v>
+      </c>
+      <c r="M9" s="49">
+        <v>12</v>
+      </c>
+      <c r="N9" s="49">
+        <v>13</v>
+      </c>
+      <c r="O9" s="49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:O10" si="0">B7</f>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="15" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="45" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="48">
+        <f>SUM($B$2:B$2)-SUM($B$3:B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="48">
+        <f>SUM($B$2:C$2)-SUM($B$3:C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="48">
+        <f>SUM($B$2:D$2)-SUM($B$3:D$3)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="48">
+        <f>SUM($B$2:E$2)-SUM($B$3:E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="48">
+        <f>SUM($B$2:F$2)-SUM($B$3:F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="48">
+        <f>SUM($B$2:G$2)-SUM($B$3:G$3)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="48">
+        <f>SUM($B$2:H$2)-SUM($B$3:H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="48">
+        <f>SUM($B$2:I$2)-SUM($B$3:I$3)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="48">
+        <f>SUM($B$2:J$2)-SUM($B$3:J$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="48">
+        <f>SUM($B$2:K$2)-SUM($B$3:K$3)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="48">
+        <f>SUM($B$2:L$2)-SUM($B$3:L$3)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="48">
+        <f>SUM($B$2:M$2)-SUM($B$3:M$3)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="48">
+        <f>SUM($B$2:N$2)-SUM($B$3:N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="48">
+        <f>SUM($B$2:O$2)-SUM($B$3:O$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="49">
+        <v>1</v>
+      </c>
+      <c r="C7" s="49">
+        <v>2</v>
+      </c>
+      <c r="D7" s="49">
+        <v>3</v>
+      </c>
+      <c r="E7" s="49">
+        <v>4</v>
+      </c>
+      <c r="F7" s="49">
+        <v>5</v>
+      </c>
+      <c r="G7" s="49">
+        <v>6</v>
+      </c>
+      <c r="H7" s="49">
+        <v>7</v>
+      </c>
+      <c r="I7" s="49">
+        <v>8</v>
+      </c>
+      <c r="J7" s="49">
+        <v>9</v>
+      </c>
+      <c r="K7" s="49">
+        <v>10</v>
+      </c>
+      <c r="L7" s="49">
+        <v>11</v>
+      </c>
+      <c r="M7" s="49">
+        <v>12</v>
+      </c>
+      <c r="N7" s="49">
+        <v>13</v>
+      </c>
+      <c r="O7" s="49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:O8" si="0">B5</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="150" zoomScaleNormal="125">
+    <sheetView zoomScale="150" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="15" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>80</v>
       </c>
@@ -3533,7 +4595,7 @@
         <v>46009</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>81</v>
       </c>
@@ -3586,7 +4648,7 @@
         <v>32.5</v>
       </c>
       <c r="V2" s="40">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="W2" s="40">
         <v>51.5</v>
@@ -3609,7 +4671,7 @@
         <v>12.4</v>
       </c>
       <c r="AE2" s="40">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AF2" s="40"/>
       <c r="AG2" s="40"/>
@@ -3620,7 +4682,7 @@
         <v>29.8</v>
       </c>
       <c r="AJ2" s="40">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="AK2" s="40">
         <v>47.1</v>
@@ -3634,16 +4696,16 @@
         <v>24.8</v>
       </c>
       <c r="AP2" s="40">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AQ2" s="40">
         <v>12.4</v>
       </c>
       <c r="AR2" s="40">
-        <v>8.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>82</v>
       </c>
@@ -3699,7 +4761,7 @@
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>83</v>
       </c>
@@ -3746,16 +4808,16 @@
         <v>250</v>
       </c>
       <c r="P4" s="42">
-        <v>263.6</v>
+        <v>263.60000000000002</v>
       </c>
       <c r="Q4" s="42">
-        <v>282.6</v>
+        <v>282.60000000000002</v>
       </c>
       <c r="R4" s="42">
-        <v>282.6</v>
+        <v>282.60000000000002</v>
       </c>
       <c r="S4" s="42">
-        <v>282.6</v>
+        <v>282.60000000000002</v>
       </c>
       <c r="T4" s="42">
         <v>309.7</v>
@@ -3800,13 +4862,13 @@
         <v>550.9</v>
       </c>
       <c r="AH4" s="42">
-        <v>575.7</v>
+        <v>575.70000000000005</v>
       </c>
       <c r="AI4" s="42">
         <v>605.5</v>
       </c>
       <c r="AJ4" s="42">
-        <v>637.7</v>
+        <v>637.70000000000005</v>
       </c>
       <c r="AK4" s="42">
         <v>684.8</v>
@@ -3833,7 +4895,7 @@
         <v>777.9</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
         <v>84</v>
       </c>
@@ -3967,7 +5029,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>85</v>
       </c>
@@ -4027,7 +5089,7 @@
       <c r="AQ6" s="42"/>
       <c r="AR6" s="42"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
         <v>86</v>
       </c>
@@ -4166,22 +5228,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="76.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>15</v>
       </c>
@@ -4190,7 +5252,7 @@
       </c>
       <c r="C1" s="42"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -4199,7 +5261,7 @@
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -4208,252 +5270,252 @@
       </c>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="42"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="42"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="42"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="42"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="42"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="42"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="42"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="42"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="42"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="42"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="42"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="42"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="42"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="42"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="42"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="42"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="44"/>
       <c r="C21" s="42"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="42"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="42"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="44"/>
       <c r="C24" s="42"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="42"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="42"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="42"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="42"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="42"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="42"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="44"/>
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="44"/>
       <c r="C34" s="42"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="42"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="44"/>
       <c r="C36" s="42"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="44"/>
       <c r="C37" s="42"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="44"/>
       <c r="C38" s="42"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="42" t="s">
         <v>60</v>
       </c>
@@ -4465,16 +5527,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="45" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -4521,7 +5586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4556,7 +5621,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4591,7 +5656,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4626,7 +5691,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4661,7 +5726,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4696,7 +5761,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -4731,7 +5796,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -4766,7 +5831,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -4801,7 +5866,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -4836,7 +5901,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -4871,7 +5936,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -4906,7 +5971,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4941,7 +6006,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4976,7 +6041,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -5011,7 +6076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -5046,7 +6111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
         <v>101</v>
       </c>
@@ -5056,8 +6121,6 @@
       <c r="C17" s="46">
         <v>26.999999999999996</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
       <c r="F17" s="46">
         <v>26.999999999999996</v>
       </c>
@@ -5073,8 +6136,6 @@
       <c r="J17" s="46">
         <v>26.999999999999996</v>
       </c>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
       <c r="M17" s="46">
         <v>26.999999999999996</v>
       </c>
@@ -5085,7 +6146,7 @@
         <v>26.999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
         <v>69</v>
       </c>
@@ -5095,8 +6156,6 @@
       <c r="C18" s="47">
         <v>21.5</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
       <c r="F18" s="47">
         <v>21.5</v>
       </c>
@@ -5112,8 +6171,6 @@
       <c r="J18" s="47">
         <v>21.5</v>
       </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
       <c r="M18" s="47">
         <v>21.5</v>
       </c>
@@ -5124,54 +6181,68 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
         <v>102</v>
       </c>
       <c r="B20" s="48">
         <f>SUM($B$17:B$17)-SUM($B$18:B$18)</f>
+        <v>5.4999999999999964</v>
       </c>
       <c r="C20" s="48">
         <f>SUM($B$17:C$17)-SUM($B$18:C$18)</f>
+        <v>10.999999999999993</v>
       </c>
       <c r="D20" s="48">
         <f>SUM($B$17:D$17)-SUM($B$18:D$18)</f>
+        <v>10.999999999999993</v>
       </c>
       <c r="E20" s="48">
         <f>SUM($B$17:E$17)-SUM($B$18:E$18)</f>
+        <v>10.999999999999993</v>
       </c>
       <c r="F20" s="48">
         <f>SUM($B$17:F$17)-SUM($B$18:F$18)</f>
+        <v>16.499999999999986</v>
       </c>
       <c r="G20" s="48">
         <f>SUM($B$17:G$17)-SUM($B$18:G$18)</f>
+        <v>21.999999999999986</v>
       </c>
       <c r="H20" s="48">
         <f>SUM($B$17:H$17)-SUM($B$18:H$18)</f>
+        <v>27.499999999999972</v>
       </c>
       <c r="I20" s="48">
         <f>SUM($B$17:I$17)-SUM($B$18:I$18)</f>
+        <v>32.999999999999972</v>
       </c>
       <c r="J20" s="48">
         <f>SUM($B$17:J$17)-SUM($B$18:J$18)</f>
+        <v>38.499999999999972</v>
       </c>
       <c r="K20" s="48">
         <f>SUM($B$17:K$17)-SUM($B$18:K$18)</f>
+        <v>38.499999999999972</v>
       </c>
       <c r="L20" s="48">
         <f>SUM($B$17:L$17)-SUM($B$18:L$18)</f>
+        <v>38.499999999999972</v>
       </c>
       <c r="M20" s="48">
         <f>SUM($B$17:M$17)-SUM($B$18:M$18)</f>
+        <v>43.999999999999972</v>
       </c>
       <c r="N20" s="48">
         <f>SUM($B$17:N$17)-SUM($B$18:N$18)</f>
+        <v>49.499999999999972</v>
       </c>
       <c r="O20" s="48">
         <f>SUM($B$17:O$17)-SUM($B$18:O$18)</f>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54.999999999999943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
         <v>103</v>
       </c>
@@ -5218,89 +6289,106 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>104</v>
       </c>
       <c r="B23">
-        <f>B20</f>
+        <f t="shared" ref="B23:O23" si="0">B20</f>
+        <v>5.4999999999999964</v>
       </c>
       <c r="C23">
-        <f>C20</f>
+        <f t="shared" si="0"/>
+        <v>10.999999999999993</v>
       </c>
       <c r="D23">
-        <f>D20</f>
+        <f t="shared" si="0"/>
+        <v>10.999999999999993</v>
       </c>
       <c r="E23">
-        <f>E20</f>
+        <f t="shared" si="0"/>
+        <v>10.999999999999993</v>
       </c>
       <c r="F23">
-        <f>F20</f>
+        <f t="shared" si="0"/>
+        <v>16.499999999999986</v>
       </c>
       <c r="G23">
-        <f>G20</f>
+        <f t="shared" si="0"/>
+        <v>21.999999999999986</v>
       </c>
       <c r="H23">
-        <f>H20</f>
+        <f t="shared" si="0"/>
+        <v>27.499999999999972</v>
       </c>
       <c r="I23">
-        <f>I20</f>
+        <f t="shared" si="0"/>
+        <v>32.999999999999972</v>
       </c>
       <c r="J23">
-        <f>J20</f>
+        <f t="shared" si="0"/>
+        <v>38.499999999999972</v>
       </c>
       <c r="K23">
-        <f>K20</f>
+        <f t="shared" si="0"/>
+        <v>38.499999999999972</v>
       </c>
       <c r="L23">
-        <f>L20</f>
+        <f t="shared" si="0"/>
+        <v>38.499999999999972</v>
       </c>
       <c r="M23">
-        <f>M20</f>
+        <f t="shared" si="0"/>
+        <v>43.999999999999972</v>
       </c>
       <c r="N23">
-        <f>N20</f>
+        <f t="shared" si="0"/>
+        <v>49.499999999999972</v>
       </c>
       <c r="O23">
-        <f>O20</f>
-      </c>
-    </row>
-    <row r="25" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>54.999999999999943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O34"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="45" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -5347,42 +6435,42 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O2">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -5417,7 +6505,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5452,7 +6540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -5487,7 +6575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -5522,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5557,7 +6645,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -5592,7 +6680,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5627,42 +6715,42 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O10">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5697,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -5732,7 +6820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -5767,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -5802,7 +6890,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -5837,7 +6925,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -5872,7 +6960,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -5907,7 +6995,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -5942,7 +7030,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -5977,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -6012,7 +7100,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -6047,7 +7135,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -6082,7 +7170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46" t="s">
         <v>101</v>
       </c>
@@ -6092,8 +7180,6 @@
       <c r="C23" s="46">
         <v>25</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
       <c r="F23" s="46">
         <v>25</v>
       </c>
@@ -6109,8 +7195,6 @@
       <c r="J23" s="46">
         <v>25</v>
       </c>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
       <c r="M23" s="46">
         <v>25</v>
       </c>
@@ -6121,73 +7205,88 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="47">
-        <v>16.25</v>
+        <v>15.2</v>
       </c>
       <c r="C24" s="47">
-        <v>16.25</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+        <v>15.2</v>
+      </c>
       <c r="F24" s="47">
-        <v>16.25</v>
+        <v>15.2</v>
       </c>
       <c r="G24" s="47">
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15.2</v>
+      </c>
+      <c r="H24" s="47">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48" t="s">
         <v>102</v>
       </c>
       <c r="B26" s="48">
         <f>SUM($B$23:B$23)-SUM($B$24:B$24)</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C26" s="48">
         <f>SUM($B$23:C$23)-SUM($B$24:C$24)</f>
+        <v>19.600000000000001</v>
       </c>
       <c r="D26" s="48">
         <f>SUM($B$23:D$23)-SUM($B$24:D$24)</f>
+        <v>19.600000000000001</v>
       </c>
       <c r="E26" s="48">
         <f>SUM($B$23:E$23)-SUM($B$24:E$24)</f>
+        <v>19.600000000000001</v>
       </c>
       <c r="F26" s="48">
         <f>SUM($B$23:F$23)-SUM($B$24:F$24)</f>
+        <v>29.400000000000006</v>
       </c>
       <c r="G26" s="48">
         <f>SUM($B$23:G$23)-SUM($B$24:G$24)</f>
+        <v>39.200000000000003</v>
       </c>
       <c r="H26" s="48">
         <f>SUM($B$23:H$23)-SUM($B$24:H$24)</f>
+        <v>49</v>
       </c>
       <c r="I26" s="48">
         <f>SUM($B$23:I$23)-SUM($B$24:I$24)</f>
+        <v>74</v>
       </c>
       <c r="J26" s="48">
         <f>SUM($B$23:J$23)-SUM($B$24:J$24)</f>
+        <v>99</v>
       </c>
       <c r="K26" s="48">
         <f>SUM($B$23:K$23)-SUM($B$24:K$24)</f>
+        <v>99</v>
       </c>
       <c r="L26" s="48">
         <f>SUM($B$23:L$23)-SUM($B$24:L$24)</f>
+        <v>99</v>
       </c>
       <c r="M26" s="48">
         <f>SUM($B$23:M$23)-SUM($B$24:M$24)</f>
+        <v>124</v>
       </c>
       <c r="N26" s="48">
         <f>SUM($B$23:N$23)-SUM($B$24:N$24)</f>
+        <v>149</v>
       </c>
       <c r="O26" s="48">
         <f>SUM($B$23:O$23)-SUM($B$24:O$24)</f>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="49" t="s">
         <v>103</v>
       </c>
@@ -6234,89 +7333,106 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>104</v>
       </c>
       <c r="B29">
-        <f>B26</f>
+        <f t="shared" ref="B29:O29" si="0">B26</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C29">
-        <f>C26</f>
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
       </c>
       <c r="D29">
-        <f>D26</f>
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
       </c>
       <c r="E29">
-        <f>E26</f>
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
       </c>
       <c r="F29">
-        <f>F26</f>
+        <f t="shared" si="0"/>
+        <v>29.400000000000006</v>
       </c>
       <c r="G29">
-        <f>G26</f>
+        <f t="shared" si="0"/>
+        <v>39.200000000000003</v>
       </c>
       <c r="H29">
-        <f>H26</f>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="I29">
-        <f>I26</f>
+        <f t="shared" si="0"/>
+        <v>74</v>
       </c>
       <c r="J29">
-        <f>J26</f>
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="K29">
-        <f>K26</f>
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="L29">
-        <f>L26</f>
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="M29">
-        <f>M26</f>
+        <f t="shared" si="0"/>
+        <v>124</v>
       </c>
       <c r="N29">
-        <f>N26</f>
+        <f t="shared" si="0"/>
+        <v>149</v>
       </c>
       <c r="O29">
-        <f>O26</f>
-      </c>
-    </row>
-    <row r="31" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O29"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="45" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -6363,7 +7479,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -6398,7 +7514,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -6433,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -6468,7 +7584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -6503,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -6538,7 +7654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -6573,7 +7689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6608,42 +7724,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
       <c r="B9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O9">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -6678,7 +7794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -6713,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -6748,7 +7864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -6783,7 +7899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -6818,7 +7934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -6853,7 +7969,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -6888,7 +8004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -6923,7 +8039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
         <v>101</v>
       </c>
@@ -6933,8 +8049,6 @@
       <c r="C18" s="46">
         <v>27.1</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>27.1</v>
       </c>
@@ -6950,8 +8064,6 @@
       <c r="J18" s="46">
         <v>27.1</v>
       </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
       <c r="M18" s="46">
         <v>27.1</v>
       </c>
@@ -6962,59 +8074,73 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
         <v>102</v>
       </c>
       <c r="B21" s="48">
         <f>SUM($B$18:B$18)-SUM($B$19:B$19)</f>
+        <v>27.1</v>
       </c>
       <c r="C21" s="48">
         <f>SUM($B$18:C$18)-SUM($B$19:C$19)</f>
+        <v>54.2</v>
       </c>
       <c r="D21" s="48">
         <f>SUM($B$18:D$18)-SUM($B$19:D$19)</f>
+        <v>54.2</v>
       </c>
       <c r="E21" s="48">
         <f>SUM($B$18:E$18)-SUM($B$19:E$19)</f>
+        <v>54.2</v>
       </c>
       <c r="F21" s="48">
         <f>SUM($B$18:F$18)-SUM($B$19:F$19)</f>
+        <v>81.300000000000011</v>
       </c>
       <c r="G21" s="48">
         <f>SUM($B$18:G$18)-SUM($B$19:G$19)</f>
+        <v>108.4</v>
       </c>
       <c r="H21" s="48">
         <f>SUM($B$18:H$18)-SUM($B$19:H$19)</f>
+        <v>135.5</v>
       </c>
       <c r="I21" s="48">
         <f>SUM($B$18:I$18)-SUM($B$19:I$19)</f>
+        <v>162.6</v>
       </c>
       <c r="J21" s="48">
         <f>SUM($B$18:J$18)-SUM($B$19:J$19)</f>
+        <v>189.7</v>
       </c>
       <c r="K21" s="48">
         <f>SUM($B$18:K$18)-SUM($B$19:K$19)</f>
+        <v>189.7</v>
       </c>
       <c r="L21" s="48">
         <f>SUM($B$18:L$18)-SUM($B$19:L$19)</f>
+        <v>189.7</v>
       </c>
       <c r="M21" s="48">
         <f>SUM($B$18:M$18)-SUM($B$19:M$19)</f>
+        <v>216.79999999999998</v>
       </c>
       <c r="N21" s="48">
         <f>SUM($B$18:N$18)-SUM($B$19:N$19)</f>
+        <v>243.89999999999998</v>
       </c>
       <c r="O21" s="48">
         <f>SUM($B$18:O$18)-SUM($B$19:O$19)</f>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
         <v>103</v>
       </c>
@@ -7061,89 +8187,106 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>104</v>
       </c>
       <c r="B24">
-        <f>B21</f>
+        <f t="shared" ref="B24:O24" si="0">B21</f>
+        <v>27.1</v>
       </c>
       <c r="C24">
-        <f>C21</f>
+        <f t="shared" si="0"/>
+        <v>54.2</v>
       </c>
       <c r="D24">
-        <f>D21</f>
+        <f t="shared" si="0"/>
+        <v>54.2</v>
       </c>
       <c r="E24">
-        <f>E21</f>
+        <f t="shared" si="0"/>
+        <v>54.2</v>
       </c>
       <c r="F24">
-        <f>F21</f>
+        <f t="shared" si="0"/>
+        <v>81.300000000000011</v>
       </c>
       <c r="G24">
-        <f>G21</f>
+        <f t="shared" si="0"/>
+        <v>108.4</v>
       </c>
       <c r="H24">
-        <f>H21</f>
+        <f t="shared" si="0"/>
+        <v>135.5</v>
       </c>
       <c r="I24">
-        <f>I21</f>
+        <f t="shared" si="0"/>
+        <v>162.6</v>
       </c>
       <c r="J24">
-        <f>J21</f>
+        <f t="shared" si="0"/>
+        <v>189.7</v>
       </c>
       <c r="K24">
-        <f>K21</f>
+        <f t="shared" si="0"/>
+        <v>189.7</v>
       </c>
       <c r="L24">
-        <f>L21</f>
+        <f t="shared" si="0"/>
+        <v>189.7</v>
       </c>
       <c r="M24">
-        <f>M21</f>
+        <f t="shared" si="0"/>
+        <v>216.79999999999998</v>
       </c>
       <c r="N24">
-        <f>N21</f>
+        <f t="shared" si="0"/>
+        <v>243.89999999999998</v>
       </c>
       <c r="O24">
-        <f>O21</f>
-      </c>
-    </row>
-    <row r="26" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O28"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="45" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -7190,7 +8333,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -7225,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -7260,7 +8403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -7295,7 +8438,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -7330,7 +8473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -7365,7 +8508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -7400,7 +8543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -7435,7 +8578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -7470,7 +8613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -7505,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7540,7 +8683,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -7575,7 +8718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -7610,7 +8753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -7645,7 +8788,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -7680,7 +8823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -7715,7 +8858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
         <v>101</v>
       </c>
@@ -7725,8 +8868,6 @@
       <c r="C17" s="46">
         <v>24.799999999999997</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
       <c r="F17" s="46">
         <v>24.799999999999997</v>
       </c>
@@ -7742,8 +8883,6 @@
       <c r="J17" s="46">
         <v>24.799999999999997</v>
       </c>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
       <c r="M17" s="46">
         <v>24.799999999999997</v>
       </c>
@@ -7754,59 +8893,73 @@
         <v>24.799999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
         <v>102</v>
       </c>
       <c r="B20" s="48">
         <f>SUM($B$17:B$17)-SUM($B$18:B$18)</f>
+        <v>24.799999999999997</v>
       </c>
       <c r="C20" s="48">
         <f>SUM($B$17:C$17)-SUM($B$18:C$18)</f>
+        <v>49.599999999999994</v>
       </c>
       <c r="D20" s="48">
         <f>SUM($B$17:D$17)-SUM($B$18:D$18)</f>
+        <v>49.599999999999994</v>
       </c>
       <c r="E20" s="48">
         <f>SUM($B$17:E$17)-SUM($B$18:E$18)</f>
+        <v>49.599999999999994</v>
       </c>
       <c r="F20" s="48">
         <f>SUM($B$17:F$17)-SUM($B$18:F$18)</f>
+        <v>74.399999999999991</v>
       </c>
       <c r="G20" s="48">
         <f>SUM($B$17:G$17)-SUM($B$18:G$18)</f>
+        <v>99.199999999999989</v>
       </c>
       <c r="H20" s="48">
         <f>SUM($B$17:H$17)-SUM($B$18:H$18)</f>
+        <v>123.99999999999999</v>
       </c>
       <c r="I20" s="48">
         <f>SUM($B$17:I$17)-SUM($B$18:I$18)</f>
+        <v>148.79999999999998</v>
       </c>
       <c r="J20" s="48">
         <f>SUM($B$17:J$17)-SUM($B$18:J$18)</f>
+        <v>173.59999999999997</v>
       </c>
       <c r="K20" s="48">
         <f>SUM($B$17:K$17)-SUM($B$18:K$18)</f>
+        <v>173.59999999999997</v>
       </c>
       <c r="L20" s="48">
         <f>SUM($B$17:L$17)-SUM($B$18:L$18)</f>
+        <v>173.59999999999997</v>
       </c>
       <c r="M20" s="48">
         <f>SUM($B$17:M$17)-SUM($B$18:M$18)</f>
+        <v>198.39999999999998</v>
       </c>
       <c r="N20" s="48">
         <f>SUM($B$17:N$17)-SUM($B$18:N$18)</f>
+        <v>223.2</v>
       </c>
       <c r="O20" s="48">
         <f>SUM($B$17:O$17)-SUM($B$18:O$18)</f>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
         <v>103</v>
       </c>
@@ -7853,89 +9006,106 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>104</v>
       </c>
       <c r="B23">
-        <f>B20</f>
+        <f t="shared" ref="B23:O23" si="0">B20</f>
+        <v>24.799999999999997</v>
       </c>
       <c r="C23">
-        <f>C20</f>
+        <f t="shared" si="0"/>
+        <v>49.599999999999994</v>
       </c>
       <c r="D23">
-        <f>D20</f>
+        <f t="shared" si="0"/>
+        <v>49.599999999999994</v>
       </c>
       <c r="E23">
-        <f>E20</f>
+        <f t="shared" si="0"/>
+        <v>49.599999999999994</v>
       </c>
       <c r="F23">
-        <f>F20</f>
+        <f t="shared" si="0"/>
+        <v>74.399999999999991</v>
       </c>
       <c r="G23">
-        <f>G20</f>
+        <f t="shared" si="0"/>
+        <v>99.199999999999989</v>
       </c>
       <c r="H23">
-        <f>H20</f>
+        <f t="shared" si="0"/>
+        <v>123.99999999999999</v>
       </c>
       <c r="I23">
-        <f>I20</f>
+        <f t="shared" si="0"/>
+        <v>148.79999999999998</v>
       </c>
       <c r="J23">
-        <f>J20</f>
+        <f t="shared" si="0"/>
+        <v>173.59999999999997</v>
       </c>
       <c r="K23">
-        <f>K20</f>
+        <f t="shared" si="0"/>
+        <v>173.59999999999997</v>
       </c>
       <c r="L23">
-        <f>L20</f>
+        <f t="shared" si="0"/>
+        <v>173.59999999999997</v>
       </c>
       <c r="M23">
-        <f>M20</f>
+        <f t="shared" si="0"/>
+        <v>198.39999999999998</v>
       </c>
       <c r="N23">
-        <f>N20</f>
+        <f t="shared" si="0"/>
+        <v>223.2</v>
       </c>
       <c r="O23">
-        <f>O20</f>
-      </c>
-    </row>
-    <row r="25" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O29"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="45" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -7982,7 +9152,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -8017,7 +9187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -8052,7 +9222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -8087,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -8122,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -8157,7 +9327,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -8192,7 +9362,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -8227,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -8262,7 +9432,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -8297,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -8332,7 +9502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -8367,7 +9537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -8402,7 +9572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -8437,7 +9607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -8472,7 +9642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -8507,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -8542,7 +9712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
         <v>101</v>
       </c>
@@ -8552,8 +9722,6 @@
       <c r="C18" s="46">
         <v>17.3</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>17.3</v>
       </c>
@@ -8569,8 +9737,6 @@
       <c r="J18" s="46">
         <v>17.3</v>
       </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
       <c r="M18" s="46">
         <v>17.3</v>
       </c>
@@ -8581,59 +9747,73 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
         <v>102</v>
       </c>
       <c r="B21" s="48">
         <f>SUM($B$18:B$18)-SUM($B$19:B$19)</f>
+        <v>17.3</v>
       </c>
       <c r="C21" s="48">
         <f>SUM($B$18:C$18)-SUM($B$19:C$19)</f>
+        <v>34.6</v>
       </c>
       <c r="D21" s="48">
         <f>SUM($B$18:D$18)-SUM($B$19:D$19)</f>
+        <v>34.6</v>
       </c>
       <c r="E21" s="48">
         <f>SUM($B$18:E$18)-SUM($B$19:E$19)</f>
+        <v>34.6</v>
       </c>
       <c r="F21" s="48">
         <f>SUM($B$18:F$18)-SUM($B$19:F$19)</f>
+        <v>51.900000000000006</v>
       </c>
       <c r="G21" s="48">
         <f>SUM($B$18:G$18)-SUM($B$19:G$19)</f>
+        <v>69.2</v>
       </c>
       <c r="H21" s="48">
         <f>SUM($B$18:H$18)-SUM($B$19:H$19)</f>
+        <v>86.5</v>
       </c>
       <c r="I21" s="48">
         <f>SUM($B$18:I$18)-SUM($B$19:I$19)</f>
+        <v>103.8</v>
       </c>
       <c r="J21" s="48">
         <f>SUM($B$18:J$18)-SUM($B$19:J$19)</f>
+        <v>121.1</v>
       </c>
       <c r="K21" s="48">
         <f>SUM($B$18:K$18)-SUM($B$19:K$19)</f>
+        <v>121.1</v>
       </c>
       <c r="L21" s="48">
         <f>SUM($B$18:L$18)-SUM($B$19:L$19)</f>
+        <v>121.1</v>
       </c>
       <c r="M21" s="48">
         <f>SUM($B$18:M$18)-SUM($B$19:M$19)</f>
+        <v>138.4</v>
       </c>
       <c r="N21" s="48">
         <f>SUM($B$18:N$18)-SUM($B$19:N$19)</f>
+        <v>155.70000000000002</v>
       </c>
       <c r="O21" s="48">
         <f>SUM($B$18:O$18)-SUM($B$19:O$19)</f>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>173.00000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
         <v>103</v>
       </c>
@@ -8680,89 +9860,106 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>104</v>
       </c>
       <c r="B24">
-        <f>B21</f>
+        <f t="shared" ref="B24:O24" si="0">B21</f>
+        <v>17.3</v>
       </c>
       <c r="C24">
-        <f>C21</f>
+        <f t="shared" si="0"/>
+        <v>34.6</v>
       </c>
       <c r="D24">
-        <f>D21</f>
+        <f t="shared" si="0"/>
+        <v>34.6</v>
       </c>
       <c r="E24">
-        <f>E21</f>
+        <f t="shared" si="0"/>
+        <v>34.6</v>
       </c>
       <c r="F24">
-        <f>F21</f>
+        <f t="shared" si="0"/>
+        <v>51.900000000000006</v>
       </c>
       <c r="G24">
-        <f>G21</f>
+        <f t="shared" si="0"/>
+        <v>69.2</v>
       </c>
       <c r="H24">
-        <f>H21</f>
+        <f t="shared" si="0"/>
+        <v>86.5</v>
       </c>
       <c r="I24">
-        <f>I21</f>
+        <f t="shared" si="0"/>
+        <v>103.8</v>
       </c>
       <c r="J24">
-        <f>J21</f>
+        <f t="shared" si="0"/>
+        <v>121.1</v>
       </c>
       <c r="K24">
-        <f>K21</f>
+        <f t="shared" si="0"/>
+        <v>121.1</v>
       </c>
       <c r="L24">
-        <f>L21</f>
+        <f t="shared" si="0"/>
+        <v>121.1</v>
       </c>
       <c r="M24">
-        <f>M21</f>
+        <f t="shared" si="0"/>
+        <v>138.4</v>
       </c>
       <c r="N24">
-        <f>N21</f>
+        <f t="shared" si="0"/>
+        <v>155.70000000000002</v>
       </c>
       <c r="O24">
-        <f>O21</f>
-      </c>
-    </row>
-    <row r="26" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>173.00000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O28"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="45" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -8809,7 +10006,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -8844,7 +10041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -8879,7 +10076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -8914,7 +10111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -8949,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -8984,7 +10181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -9019,7 +10216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -9054,7 +10251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -9089,7 +10286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -9124,7 +10321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -9159,7 +10356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -9194,7 +10391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -9229,7 +10426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -9264,7 +10461,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -9299,7 +10496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -9334,7 +10531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
         <v>101</v>
       </c>
@@ -9344,8 +10541,6 @@
       <c r="C17" s="46">
         <v>28.5</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
       <c r="F17" s="46">
         <v>28.5</v>
       </c>
@@ -9361,8 +10556,6 @@
       <c r="J17" s="46">
         <v>28.5</v>
       </c>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
       <c r="M17" s="46">
         <v>28.5</v>
       </c>
@@ -9373,59 +10566,73 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
         <v>102</v>
       </c>
       <c r="B20" s="48">
         <f>SUM($B$17:B$17)-SUM($B$18:B$18)</f>
+        <v>28.5</v>
       </c>
       <c r="C20" s="48">
         <f>SUM($B$17:C$17)-SUM($B$18:C$18)</f>
+        <v>57</v>
       </c>
       <c r="D20" s="48">
         <f>SUM($B$17:D$17)-SUM($B$18:D$18)</f>
+        <v>57</v>
       </c>
       <c r="E20" s="48">
         <f>SUM($B$17:E$17)-SUM($B$18:E$18)</f>
+        <v>57</v>
       </c>
       <c r="F20" s="48">
         <f>SUM($B$17:F$17)-SUM($B$18:F$18)</f>
+        <v>85.5</v>
       </c>
       <c r="G20" s="48">
         <f>SUM($B$17:G$17)-SUM($B$18:G$18)</f>
+        <v>114</v>
       </c>
       <c r="H20" s="48">
         <f>SUM($B$17:H$17)-SUM($B$18:H$18)</f>
+        <v>142.5</v>
       </c>
       <c r="I20" s="48">
         <f>SUM($B$17:I$17)-SUM($B$18:I$18)</f>
+        <v>171</v>
       </c>
       <c r="J20" s="48">
         <f>SUM($B$17:J$17)-SUM($B$18:J$18)</f>
+        <v>199.5</v>
       </c>
       <c r="K20" s="48">
         <f>SUM($B$17:K$17)-SUM($B$18:K$18)</f>
+        <v>199.5</v>
       </c>
       <c r="L20" s="48">
         <f>SUM($B$17:L$17)-SUM($B$18:L$18)</f>
+        <v>199.5</v>
       </c>
       <c r="M20" s="48">
         <f>SUM($B$17:M$17)-SUM($B$18:M$18)</f>
+        <v>228</v>
       </c>
       <c r="N20" s="48">
         <f>SUM($B$17:N$17)-SUM($B$18:N$18)</f>
+        <v>256.5</v>
       </c>
       <c r="O20" s="48">
         <f>SUM($B$17:O$17)-SUM($B$18:O$18)</f>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
         <v>103</v>
       </c>
@@ -9472,1064 +10679,89 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>104</v>
       </c>
       <c r="B23">
-        <f>B20</f>
+        <f t="shared" ref="B23:O23" si="0">B20</f>
+        <v>28.5</v>
       </c>
       <c r="C23">
-        <f>C20</f>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="D23">
-        <f>D20</f>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="E23">
-        <f>E20</f>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="F23">
-        <f>F20</f>
+        <f t="shared" si="0"/>
+        <v>85.5</v>
       </c>
       <c r="G23">
-        <f>G20</f>
+        <f t="shared" si="0"/>
+        <v>114</v>
       </c>
       <c r="H23">
-        <f>H20</f>
+        <f t="shared" si="0"/>
+        <v>142.5</v>
       </c>
       <c r="I23">
-        <f>I20</f>
+        <f t="shared" si="0"/>
+        <v>171</v>
       </c>
       <c r="J23">
-        <f>J20</f>
+        <f t="shared" si="0"/>
+        <v>199.5</v>
       </c>
       <c r="K23">
-        <f>K20</f>
+        <f t="shared" si="0"/>
+        <v>199.5</v>
       </c>
       <c r="L23">
-        <f>L20</f>
+        <f t="shared" si="0"/>
+        <v>199.5</v>
       </c>
       <c r="M23">
-        <f>M20</f>
+        <f t="shared" si="0"/>
+        <v>228</v>
       </c>
       <c r="N23">
-        <f>N20</f>
+        <f t="shared" si="0"/>
+        <v>256.5</v>
       </c>
       <c r="O23">
-        <f>O20</f>
-      </c>
-    </row>
-    <row r="25" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>188</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="15" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4">
-        <v>1.2</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-      <c r="F4">
-        <v>1.2</v>
-      </c>
-      <c r="G4">
-        <v>1.2</v>
-      </c>
-      <c r="H4">
-        <v>1.2</v>
-      </c>
-      <c r="I4">
-        <v>1.2</v>
-      </c>
-      <c r="J4">
-        <v>1.2</v>
-      </c>
-      <c r="M4">
-        <v>1.2</v>
-      </c>
-      <c r="N4">
-        <v>1.2</v>
-      </c>
-      <c r="O4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="46">
-        <v>19.2</v>
-      </c>
-      <c r="C13" s="46">
-        <v>19.2</v>
-      </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46">
-        <v>19.2</v>
-      </c>
-      <c r="G13" s="46">
-        <v>19.2</v>
-      </c>
-      <c r="H13" s="46">
-        <v>19.2</v>
-      </c>
-      <c r="I13" s="46">
-        <v>19.2</v>
-      </c>
-      <c r="J13" s="46">
-        <v>19.2</v>
-      </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46">
-        <v>19.2</v>
-      </c>
-      <c r="N13" s="46">
-        <v>19.2</v>
-      </c>
-      <c r="O13" s="46">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="48">
-        <f>SUM($B$13:B$13)-SUM($B$14:B$14)</f>
-      </c>
-      <c r="C16" s="48">
-        <f>SUM($B$13:C$13)-SUM($B$14:C$14)</f>
-      </c>
-      <c r="D16" s="48">
-        <f>SUM($B$13:D$13)-SUM($B$14:D$14)</f>
-      </c>
-      <c r="E16" s="48">
-        <f>SUM($B$13:E$13)-SUM($B$14:E$14)</f>
-      </c>
-      <c r="F16" s="48">
-        <f>SUM($B$13:F$13)-SUM($B$14:F$14)</f>
-      </c>
-      <c r="G16" s="48">
-        <f>SUM($B$13:G$13)-SUM($B$14:G$14)</f>
-      </c>
-      <c r="H16" s="48">
-        <f>SUM($B$13:H$13)-SUM($B$14:H$14)</f>
-      </c>
-      <c r="I16" s="48">
-        <f>SUM($B$13:I$13)-SUM($B$14:I$14)</f>
-      </c>
-      <c r="J16" s="48">
-        <f>SUM($B$13:J$13)-SUM($B$14:J$14)</f>
-      </c>
-      <c r="K16" s="48">
-        <f>SUM($B$13:K$13)-SUM($B$14:K$14)</f>
-      </c>
-      <c r="L16" s="48">
-        <f>SUM($B$13:L$13)-SUM($B$14:L$14)</f>
-      </c>
-      <c r="M16" s="48">
-        <f>SUM($B$13:M$13)-SUM($B$14:M$14)</f>
-      </c>
-      <c r="N16" s="48">
-        <f>SUM($B$13:N$13)-SUM($B$14:N$14)</f>
-      </c>
-      <c r="O16" s="48">
-        <f>SUM($B$13:O$13)-SUM($B$14:O$14)</f>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="49">
-        <v>1</v>
-      </c>
-      <c r="C18" s="49">
-        <v>2</v>
-      </c>
-      <c r="D18" s="49">
-        <v>3</v>
-      </c>
-      <c r="E18" s="49">
-        <v>4</v>
-      </c>
-      <c r="F18" s="49">
-        <v>5</v>
-      </c>
-      <c r="G18" s="49">
-        <v>6</v>
-      </c>
-      <c r="H18" s="49">
-        <v>7</v>
-      </c>
-      <c r="I18" s="49">
-        <v>8</v>
-      </c>
-      <c r="J18" s="49">
-        <v>9</v>
-      </c>
-      <c r="K18" s="49">
-        <v>10</v>
-      </c>
-      <c r="L18" s="49">
-        <v>11</v>
-      </c>
-      <c r="M18" s="49">
-        <v>12</v>
-      </c>
-      <c r="N18" s="49">
-        <v>13</v>
-      </c>
-      <c r="O18" s="49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19">
-        <f>B16</f>
-      </c>
-      <c r="C19">
-        <f>C16</f>
-      </c>
-      <c r="D19">
-        <f>D16</f>
-      </c>
-      <c r="E19">
-        <f>E16</f>
-      </c>
-      <c r="F19">
-        <f>F16</f>
-      </c>
-      <c r="G19">
-        <f>G16</f>
-      </c>
-      <c r="H19">
-        <f>H16</f>
-      </c>
-      <c r="I19">
-        <f>I16</f>
-      </c>
-      <c r="J19">
-        <f>J16</f>
-      </c>
-      <c r="K19">
-        <f>K16</f>
-      </c>
-      <c r="L19">
-        <f>L16</f>
-      </c>
-      <c r="M19">
-        <f>M16</f>
-      </c>
-      <c r="N19">
-        <f>N16</f>
-      </c>
-      <c r="O19">
-        <f>O16</f>
-      </c>
-    </row>
-    <row r="21" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="15" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="46">
-        <v>6</v>
-      </c>
-      <c r="C4" s="46">
-        <v>6</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46">
-        <v>6</v>
-      </c>
-      <c r="G4" s="46">
-        <v>6</v>
-      </c>
-      <c r="H4" s="46">
-        <v>6</v>
-      </c>
-      <c r="I4" s="46">
-        <v>6</v>
-      </c>
-      <c r="J4" s="46">
-        <v>6</v>
-      </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46">
-        <v>6</v>
-      </c>
-      <c r="N4" s="46">
-        <v>6</v>
-      </c>
-      <c r="O4" s="46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="48">
-        <f>SUM($B$4:B$4)-SUM($B$5:B$5)</f>
-      </c>
-      <c r="C7" s="48">
-        <f>SUM($B$4:C$4)-SUM($B$5:C$5)</f>
-      </c>
-      <c r="D7" s="48">
-        <f>SUM($B$4:D$4)-SUM($B$5:D$5)</f>
-      </c>
-      <c r="E7" s="48">
-        <f>SUM($B$4:E$4)-SUM($B$5:E$5)</f>
-      </c>
-      <c r="F7" s="48">
-        <f>SUM($B$4:F$4)-SUM($B$5:F$5)</f>
-      </c>
-      <c r="G7" s="48">
-        <f>SUM($B$4:G$4)-SUM($B$5:G$5)</f>
-      </c>
-      <c r="H7" s="48">
-        <f>SUM($B$4:H$4)-SUM($B$5:H$5)</f>
-      </c>
-      <c r="I7" s="48">
-        <f>SUM($B$4:I$4)-SUM($B$5:I$5)</f>
-      </c>
-      <c r="J7" s="48">
-        <f>SUM($B$4:J$4)-SUM($B$5:J$5)</f>
-      </c>
-      <c r="K7" s="48">
-        <f>SUM($B$4:K$4)-SUM($B$5:K$5)</f>
-      </c>
-      <c r="L7" s="48">
-        <f>SUM($B$4:L$4)-SUM($B$5:L$5)</f>
-      </c>
-      <c r="M7" s="48">
-        <f>SUM($B$4:M$4)-SUM($B$5:M$5)</f>
-      </c>
-      <c r="N7" s="48">
-        <f>SUM($B$4:N$4)-SUM($B$5:N$5)</f>
-      </c>
-      <c r="O7" s="48">
-        <f>SUM($B$4:O$4)-SUM($B$5:O$5)</f>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="49">
-        <v>1</v>
-      </c>
-      <c r="C9" s="49">
-        <v>2</v>
-      </c>
-      <c r="D9" s="49">
-        <v>3</v>
-      </c>
-      <c r="E9" s="49">
-        <v>4</v>
-      </c>
-      <c r="F9" s="49">
-        <v>5</v>
-      </c>
-      <c r="G9" s="49">
-        <v>6</v>
-      </c>
-      <c r="H9" s="49">
-        <v>7</v>
-      </c>
-      <c r="I9" s="49">
-        <v>8</v>
-      </c>
-      <c r="J9" s="49">
-        <v>9</v>
-      </c>
-      <c r="K9" s="49">
-        <v>10</v>
-      </c>
-      <c r="L9" s="49">
-        <v>11</v>
-      </c>
-      <c r="M9" s="49">
-        <v>12</v>
-      </c>
-      <c r="N9" s="49">
-        <v>13</v>
-      </c>
-      <c r="O9" s="49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10">
-        <f>B7</f>
-      </c>
-      <c r="C10">
-        <f>C7</f>
-      </c>
-      <c r="D10">
-        <f>D7</f>
-      </c>
-      <c r="E10">
-        <f>E7</f>
-      </c>
-      <c r="F10">
-        <f>F7</f>
-      </c>
-      <c r="G10">
-        <f>G7</f>
-      </c>
-      <c r="H10">
-        <f>H7</f>
-      </c>
-      <c r="I10">
-        <f>I7</f>
-      </c>
-      <c r="J10">
-        <f>J7</f>
-      </c>
-      <c r="K10">
-        <f>K7</f>
-      </c>
-      <c r="L10">
-        <f>L7</f>
-      </c>
-      <c r="M10">
-        <f>M7</f>
-      </c>
-      <c r="N10">
-        <f>N7</f>
-      </c>
-      <c r="O10">
-        <f>O7</f>
-      </c>
-    </row>
-    <row r="12" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>